--- a/biology/Zoologie/Coluber_schotti/Coluber_schotti.xlsx
+++ b/biology/Zoologie/Coluber_schotti/Coluber_schotti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coluber schotti est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coluber schotti est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce taxon est souvent repris sous Masticophis schotti par plusieurs sources. Reptile Database le classe dans le genre Coluber.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre jusqu'à 2 300 m d'altitude[2],[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre jusqu'à 2 300 m d'altitude, :
 au Mexique ;
 au Texas aux États-Unis.</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (20 décembre 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (20 décembre 2013) :
 Coluber schotti ruthveni (Ortenburger, 1923)
 Coluber schotti schotti (Baird &amp; Girard, 1853)</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur d'Arthur Schott[1]. La sous-espèce Coluber schotti ruthveni est nommée en l'honneur d'Alexander Grant Ruthven[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur d'Arthur Schott. La sous-espèce Coluber schotti ruthveni est nommée en l'honneur d'Alexander Grant Ruthven.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Baird &amp; Girard, 1853 : Catalogue of North American Reptiles in the Museum of the Smithsonian Institution. Part 1.-Serpents. Smithsonian Institution, Washington, p. 1-172 (texte intégral).
 Ortenburger, 1923 : A note on the genera Coluber and Masticophis and a description of a new species of Masticophis. Occasional papers of the Museum of Zoology, University of Michigan, no 139, p. 1-14 (texte intégral).
